--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\Dispa-SET_Bolivia\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E17A8-F093-4523-959D-33F11C5CFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53430851-9C2F-43F2-A4C1-DCBF6F7E903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$78:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -552,19 +552,19 @@
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
-    <t>Simulations/bolivia_base_2020</t>
-  </si>
-  <si>
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>AvailabilityFactors/##/1990.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/1990.csv</t>
-  </si>
-  <si>
     <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>Simulations/bolivia_base_2020_HU_SIN</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1268,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>149</v>
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
@@ -3254,7 +3254,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="394" yWindow="494" count="33">
+  <dataValidations xWindow="1589" yWindow="734" count="33">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
@@ -3305,7 +3305,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="394" yWindow="494" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1589" yWindow="734" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\Dispa-SET_Bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53430851-9C2F-43F2-A4C1-DCBF6F7E903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D3D27-AFF0-4F82-87FD-51A2E1F49A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,7 +1268,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\Dispa-SET_Bolivia\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D3D27-AFF0-4F82-87FD-51A2E1F49A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BF439-4552-417C-96D8-1FB0FE3D8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,8 +1268,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>149</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\Dispa-SET_Bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BF439-4552-417C-96D8-1FB0FE3D8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A8B0AC-4A81-478F-8045-546F88BB72FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,6 +859,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,8 +1271,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,16 +1289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1310,15 +1313,15 @@
     <row r="3" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" s="34" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -1334,15 +1337,15 @@
       <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
@@ -1780,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2362,7 +2365,7 @@
       <c r="E183" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="46">
         <v>3.5538100337352398</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -2657,7 +2660,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -2680,7 +2683,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="47"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="6" t="s">
         <v>165</v>
       </c>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="47"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="6" t="s">
         <v>166</v>
       </c>
@@ -2722,7 +2725,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="47"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="6"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2737,7 +2740,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="47"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="6"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2746,7 +2749,7 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="47"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2755,7 +2758,7 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="47"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2764,7 +2767,7 @@
       <c r="G233" s="4"/>
     </row>
     <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="47"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2773,7 +2776,7 @@
       <c r="G234" s="4"/>
     </row>
     <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="47"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="6"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2782,7 +2785,7 @@
       <c r="G235" s="4"/>
     </row>
     <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="47"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2791,7 +2794,7 @@
       <c r="G236" s="4"/>
     </row>
     <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="47"/>
+      <c r="A237" s="48"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2800,7 +2803,7 @@
       <c r="G237" s="4"/>
     </row>
     <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="47"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2809,7 +2812,7 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="47"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2818,7 +2821,7 @@
       <c r="G239" s="4"/>
     </row>
     <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="47"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2827,7 +2830,7 @@
       <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="47"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2860,7 +2863,7 @@
       <c r="G244" s="4"/>
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="50" t="s">
+      <c r="A245" s="51" t="s">
         <v>133</v>
       </c>
       <c r="B245" s="6"/>
@@ -2871,7 +2874,7 @@
       <c r="G245" s="4"/>
     </row>
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="50"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="6"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -3254,7 +3257,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1589" yWindow="734" count="33">
+  <dataValidations xWindow="1169" yWindow="791" count="33">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
@@ -3265,7 +3268,7 @@
       <formula2>73051</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F182 F184:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C277" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
@@ -3305,7 +3308,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1589" yWindow="734" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1169" yWindow="791" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
